--- a/ApolloQA/Data/RatingManual/SC/VA00065.ClassCode_StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00065.ClassCode_StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.ClassCode_StatedValueFactors" sheetId="1" r:id="R4458eb9285174ff6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.ClassCode_StatedValueFactors" sheetId="1" r:id="R11f32a4ee8134b48"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>401</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>410</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>412</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3109,6 +3151,20 @@
         <x:v>420</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>421</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -4649,6 +4719,20 @@
         <x:v>422</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -5419,6 +5503,20 @@
         <x:v>423</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -6186,6 +6284,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>424</x:v>
       </x:c>
       <x:c t="str">
@@ -6959,6 +7071,20 @@
         <x:v>424</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -7729,6 +7855,20 @@
         <x:v>425</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -8499,6 +8639,20 @@
         <x:v>426</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -9269,6 +9423,20 @@
         <x:v>428</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -10039,6 +10207,20 @@
         <x:v>429</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -10809,6 +10991,20 @@
         <x:v>501</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -11579,6 +11775,20 @@
         <x:v>502</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -12346,6 +12556,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>503</x:v>
       </x:c>
       <x:c t="str">
@@ -13119,6 +13343,20 @@
         <x:v>503</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -13889,6 +14127,20 @@
         <x:v>505</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -14659,6 +14911,20 @@
         <x:v>506</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -15429,6 +15695,20 @@
         <x:v>510</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0250</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -16199,6 +16479,20 @@
         <x:v>515</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -16969,6 +17263,20 @@
         <x:v>516</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -17739,6 +18047,20 @@
         <x:v>521</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -18506,6 +18828,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>522</x:v>
       </x:c>
       <x:c t="str">
@@ -19279,6 +19615,20 @@
         <x:v>522</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -20049,6 +20399,20 @@
         <x:v>523</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -20819,6 +21183,20 @@
         <x:v>531</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -21589,6 +21967,20 @@
         <x:v>534</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -22359,6 +22751,20 @@
         <x:v>541</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -23129,6 +23535,20 @@
         <x:v>543</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -23899,6 +24319,20 @@
         <x:v>562</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -24666,6 +25100,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>563</x:v>
       </x:c>
       <x:c t="str">
@@ -25429,6 +25877,20 @@
       </x:c>
       <x:c t="str">
         <x:v>$425,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
